--- a/target/classes/excel/export/export_temp.xlsx
+++ b/target/classes/excel/export/export_temp.xlsx
@@ -58,9 +58,44 @@
         <t>jx:each(lastCell='H3' items='u1_col8' var='u1_col8' direction='DOWN')</t>
       </text>
     </comment>
+    <comment ref="I3" authorId="1">
+      <text>
+        <t>jx:each(lastCell='I3' items='u1_col9' var='u1_col9' direction='DOWN')</t>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1">
+      <text>
+        <t>jx:each(lastCell='J3' items='u1_col10' var='u1_col10' direction='DOWN')</t>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="1">
+      <text>
+        <t>jx:each(lastCell='K3' items='u1_col11' var='u1_col11' direction='DOWN')</t>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1">
+      <text>
+        <t>jx:each(lastCell='L3' items='u1_col12' var='u1_col12' direction='DOWN')</t>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1">
+      <text>
+        <t>jx:each(lastCell='M3' items='u1_col13' var='u1_col13' direction='DOWN')</t>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="1">
+      <text>
+        <t>jx:each(lastCell='N3' items='u1_col14' var='u1_col14' direction='DOWN')</t>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1">
+      <text>
+        <t>jx:each(lastCell='O3' items='u1_col15' var='u1_col15' direction='DOWN')</t>
+      </text>
+    </comment>
     <comment ref="A1" authorId="0">
       <text>
-        <t>jx:area(lastCell='H3')</t>
+        <t>jx:area(lastCell='O3')</t>
       </text>
     </comment>
   </commentList>
@@ -68,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Area</t>
   </si>
@@ -95,6 +130,27 @@
   </si>
   <si>
     <t>${u1_col8}</t>
+  </si>
+  <si>
+    <t>${u1_col9}</t>
+  </si>
+  <si>
+    <t>${u1_col10}</t>
+  </si>
+  <si>
+    <t>${u1_col11}</t>
+  </si>
+  <si>
+    <t>${u1_col12}</t>
+  </si>
+  <si>
+    <t>${u1_col13}</t>
+  </si>
+  <si>
+    <t>${u1_col14}</t>
+  </si>
+  <si>
+    <t>${u1_col15}</t>
   </si>
 </sst>
 </file>
@@ -143,7 +199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,6 +235,27 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/target/classes/excel/export/export_temp.xlsx
+++ b/target/classes/excel/export/export_temp.xlsx
@@ -20,47 +20,52 @@
   <commentList>
     <comment ref="A3" authorId="1">
       <text>
-        <t>jx:each(lastCell='A3' items='u1_col1' var='u1_col1' direction='DOWN')</t>
+        <t>jx:each(lastCell='A3' items='headers' var='header' direction='RIGHT')</t>
       </text>
     </comment>
-    <comment ref="B3" authorId="1">
+    <comment ref="A4" authorId="1">
       <text>
-        <t>jx:each(lastCell='B3' items='u1_col2' var='u1_col2' direction='DOWN')</t>
+        <t>jx:each(lastCell='A4' items='u1_col1' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="C3" authorId="1">
+    <comment ref="B4" authorId="1">
       <text>
-        <t>jx:each(lastCell='C3' items='u1_col3' var='u1_col3' direction='DOWN')</t>
+        <t>jx:each(lastCell='B4' items='u1_col2' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="D3" authorId="1">
+    <comment ref="C4" authorId="1">
       <text>
-        <t>jx:each(lastCell='D3' items='u1_col4' var='u1_col4' direction='DOWN')</t>
+        <t>jx:each(lastCell='C4' items='u1_col3' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="E3" authorId="1">
+    <comment ref="D4" authorId="1">
       <text>
-        <t>jx:each(lastCell='E3' items='u1_col5' var='u1_col5' direction='DOWN')</t>
+        <t>jx:each(lastCell='D4' items='u1_col4' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="F3" authorId="1">
+    <comment ref="E4" authorId="1">
       <text>
-        <t>jx:each(lastCell='F3' items='u1_col6' var='u1_col6' direction='DOWN')</t>
+        <t>jx:each(lastCell='E4' items='u1_col5' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="G3" authorId="1">
+    <comment ref="F4" authorId="1">
       <text>
-        <t>jx:each(lastCell='G3' items='u1_col7' var='u1_col7' direction='DOWN')</t>
+        <t>jx:each(lastCell='F4' items='u1_col6' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="H3" authorId="1">
+    <comment ref="G4" authorId="1">
       <text>
-        <t>jx:each(lastCell='H3' items='u1_col8' var='u1_col8' direction='DOWN')</t>
+        <t>jx:each(lastCell='G4' items='u1_col7' var='obj' direction='DOWN')</t>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="1">
+      <text>
+        <t>jx:each(lastCell='H4' items='u1_col8' var='obj' direction='DOWN')</t>
       </text>
     </comment>
     <comment ref="A1" authorId="0">
       <text>
-        <t>jx:area(lastCell='H3')</t>
+        <t>jx:area(lastCell='H4')</t>
       </text>
     </comment>
   </commentList>
@@ -68,33 +73,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
   <si>
-    <t>Area</t>
+    <t>Esportazione Matrice</t>
   </si>
   <si>
-    <t>${u1_col1}</t>
+    <t>${header}</t>
   </si>
   <si>
-    <t>${u1_col2}</t>
-  </si>
-  <si>
-    <t>${u1_col3}</t>
-  </si>
-  <si>
-    <t>${u1_col4}</t>
-  </si>
-  <si>
-    <t>${u1_col5}</t>
-  </si>
-  <si>
-    <t>${u1_col6}</t>
-  </si>
-  <si>
-    <t>${u1_col7}</t>
-  </si>
-  <si>
-    <t>${u1_col8}</t>
+    <t>${obj}</t>
   </si>
 </sst>
 </file>
@@ -143,7 +130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -154,32 +141,42 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
+      <c r="D4" t="s">
+        <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
+      <c r="E4" t="s">
+        <v>2</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
+      <c r="F4" t="s">
+        <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>8</v>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
       </c>
     </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/classes/excel/export/export_temp.xlsx
+++ b/target/classes/excel/export/export_temp.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -15,57 +15,51 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
-    <author>Me</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="1">
+    <comment ref="A2" authorId="0">
       <text>
-        <t>jx:each(lastCell='A3' items='headers' var='header' direction='RIGHT')</t>
+        <t>jx:each(lastCell='A2' items='headers' var='header' direction='RIGHT')</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="1">
+    <comment ref="A3" authorId="0">
       <text>
-        <t>jx:each(lastCell='A4' items='u1_col1' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='A3' items='col1' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="B4" authorId="1">
+    <comment ref="B3" authorId="0">
       <text>
-        <t>jx:each(lastCell='B4' items='u1_col2' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='B3' items='col2' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="C4" authorId="1">
+    <comment ref="C3" authorId="0">
       <text>
-        <t>jx:each(lastCell='C4' items='u1_col3' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='C3' items='col3' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="D4" authorId="1">
+    <comment ref="D3" authorId="0">
       <text>
-        <t>jx:each(lastCell='D4' items='u1_col4' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='D3' items='col4' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="E4" authorId="1">
+    <comment ref="E3" authorId="0">
       <text>
-        <t>jx:each(lastCell='E4' items='u1_col5' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='E3' items='col5' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="F4" authorId="1">
+    <comment ref="F3" authorId="0">
       <text>
-        <t>jx:each(lastCell='F4' items='u1_col6' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='F3' items='col6' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="G4" authorId="1">
+    <comment ref="G3" authorId="0">
       <text>
-        <t>jx:each(lastCell='G4' items='u1_col7' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='G3' items='col7' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="H4" authorId="1">
+    <comment ref="H3" authorId="0">
       <text>
-        <t>jx:each(lastCell='H4' items='u1_col8' var='obj' direction='DOWN')</t>
-      </text>
-    </comment>
-    <comment ref="A1" authorId="0">
-      <text>
-        <t>jx:area(lastCell='H4')</t>
+        <t>jx:each(lastCell='H3' items='col8' var='obj' direction='DOWN')</t>
       </text>
     </comment>
   </commentList>
@@ -73,10 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="3">
-  <si>
-    <t>Esportazione Matrice</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="2">
   <si>
     <t>${header}</t>
   </si>
@@ -130,53 +121,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
+      <c r="F3" t="s">
+        <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>2</v>
+      <c r="G3" t="s">
+        <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
+      <c r="H3" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/target/classes/excel/export/export_temp.xlsx
+++ b/target/classes/excel/export/export_temp.xlsx
@@ -62,6 +62,11 @@
         <t>jx:each(lastCell='H3' items='col8' var='obj' direction='DOWN')</t>
       </text>
     </comment>
+    <comment ref="A1" authorId="0">
+      <text>
+        <t>jx:area(lastCell='H3')</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -121,12 +126,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:H3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1"/>
+    </row>
     <row r="2">
       <c r="A2" t="s">
         <v>0</v>

--- a/target/classes/excel/export/export_temp.xlsx
+++ b/target/classes/excel/export/export_temp.xlsx
@@ -17,11 +17,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
-      <text>
-        <t>jx:each(lastCell='A2' items='headers' var='header' direction='RIGHT')</t>
-      </text>
-    </comment>
     <comment ref="A3" authorId="0">
       <text>
         <t>jx:each(lastCell='A3' items='col1' var='obj' direction='DOWN')</t>
@@ -64,7 +59,13 @@
     </comment>
     <comment ref="A1" authorId="0">
       <text>
-        <t>jx:area(lastCell='H3')</t>
+        <r>
+          <t>jx:area(lastCell='H3')</t>
+        </r>
+        <r>
+          <t xml:space="preserve">
+jx:each(lastCell='A1' items='headers' var='header' direction='RIGHT')</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -74,10 +75,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="2">
   <si>
-    <t>${header}</t>
+    <t>${obj}</t>
   </si>
   <si>
-    <t>${obj}</t>
+    <t>${header}</t>
   </si>
 </sst>
 </file>
@@ -133,37 +134,34 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/excel/export/export_temp.xlsx
+++ b/target/classes/excel/export/export_temp.xlsx
@@ -17,55 +17,50 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A2" authorId="0">
       <text>
-        <t>jx:each(lastCell='A3' items='col1' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='A2' items='col1' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B2" authorId="0">
       <text>
-        <t>jx:each(lastCell='B3' items='col2' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='B2' items='col2' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C2" authorId="0">
       <text>
-        <t>jx:each(lastCell='C3' items='col3' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='C2' items='col3' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="D3" authorId="0">
+    <comment ref="D2" authorId="0">
       <text>
-        <t>jx:each(lastCell='D3' items='col4' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='D2' items='col4' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E2" authorId="0">
       <text>
-        <t>jx:each(lastCell='E3' items='col5' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='E2' items='col5' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F2" authorId="0">
       <text>
-        <t>jx:each(lastCell='F3' items='col6' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='F2' items='col6' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G2" authorId="0">
       <text>
-        <t>jx:each(lastCell='G3' items='col7' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='G2' items='col7' var='obj' direction='DOWN')</t>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H2" authorId="0">
       <text>
-        <t>jx:each(lastCell='H3' items='col8' var='obj' direction='DOWN')</t>
+        <t>jx:each(lastCell='H2' items='col8' var='obj' direction='DOWN')</t>
       </text>
     </comment>
     <comment ref="A1" authorId="0">
       <text>
-        <r>
-          <t>jx:area(lastCell='H3')</t>
-        </r>
-        <r>
-          <t xml:space="preserve">
-jx:each(lastCell='A1' items='headers' var='header' direction='RIGHT')</t>
-        </r>
+        <t>jx:area(lastCell='H2')
+jx:each(lastCell=A1 items='headers' var='header' direction='RIGHT')</t>
       </text>
     </comment>
   </commentList>
@@ -127,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -138,29 +133,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/target/classes/excel/export/export_temp.xlsx
+++ b/target/classes/excel/export/export_temp.xlsx
@@ -60,7 +60,7 @@
     <comment ref="A1" authorId="0">
       <text>
         <t>jx:area(lastCell='H2')
-jx:each(lastCell=A1 items='headers' var='header' direction='RIGHT')</t>
+jx:each(lastCell=A1 items='headers' var='header' direction='RIGHT'</t>
       </text>
     </comment>
   </commentList>
